--- a/biology/Médecine/Heinrich_Olbers/Heinrich_Olbers.xlsx
+++ b/biology/Médecine/Heinrich_Olbers/Heinrich_Olbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Wilhelm Matthias Olbers (Brême, 11 octobre 1758 – Brême, 2 mars 1840) est un astronome, médecin et physicien allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Wilhelm Olbers est né à Arbergen, un quartier de Brême et a étudié la médecine à l'université de Göttingen. Après avoir obtenu son diplôme en 1780, il commencera à pratiquer la médecine à Brême, en Allemagne. La nuit, il consacre une grande partie de son temps libre à faire des observations astronomiques.
 Il découvrit deux astéroïdes, 2 Pallas et 4 Vesta, respectivement en 1802 et en 1807. C'est Olbers lui-même qui donna son nom à Pallas, tandis qu'il demandera à Gauss de baptiser le second.
